--- a/Documentacion/Entities.xlsx
+++ b/Documentacion/Entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\PesajeChallenge\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E891A44-FE20-49F5-94DD-27D9FF11F393}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB800925-C42D-49EE-B92F-5FF84ADB8CA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{42E3223B-2237-4BC1-A824-8F7083CB1414}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>User</t>
   </si>
@@ -63,57 +63,15 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>References</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>ManWeight</t>
-  </si>
-  <si>
-    <t>WomanWeight</t>
-  </si>
-  <si>
-    <t>2 vukcanos</t>
-  </si>
-  <si>
-    <t>2 shields</t>
-  </si>
-  <si>
-    <t>1 escudi</t>
-  </si>
-  <si>
-    <t>2 motores</t>
-  </si>
-  <si>
-    <t>2 misiles</t>
-  </si>
-  <si>
-    <t>4 energy</t>
-  </si>
-  <si>
-    <t>FolloUp</t>
-  </si>
-  <si>
     <t>Challenge</t>
   </si>
   <si>
     <t>StartDate</t>
   </si>
   <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>ModifiedBy</t>
-  </si>
-  <si>
-    <t>ModifiedDate</t>
-  </si>
-  <si>
     <t>UserId</t>
   </si>
   <si>
@@ -121,14 +79,73 @@
   </si>
   <si>
     <t>EndDate</t>
+  </si>
+  <si>
+    <t>ChallengeId</t>
+  </si>
+  <si>
+    <t>CheckDate</t>
+  </si>
+  <si>
+    <t>CheckDateId</t>
+  </si>
+  <si>
+    <t>InscriptionEndingDate</t>
+  </si>
+  <si>
+    <t>FollowUp</t>
+  </si>
+  <si>
+    <t>When a followup is created validates:</t>
+  </si>
+  <si>
+    <t>Is the secont followup?</t>
+  </si>
+  <si>
+    <t>If yes:</t>
+  </si>
+  <si>
+    <t>Susbtrac the first weight followup from the last weight</t>
+  </si>
+  <si>
+    <t>Compare wit others participants</t>
+  </si>
+  <si>
+    <t>If is the greatest value send notification</t>
+  </si>
+  <si>
+    <t>UpsertedBy</t>
+  </si>
+  <si>
+    <t>UpsertedDate</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t>UserInfo (all)</t>
+  </si>
+  <si>
+    <t>Collction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,18 +490,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1705427A-B41C-4351-BC43-B85507BEFE9A}">
-  <dimension ref="E7:L24"/>
+  <dimension ref="D7:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -491,13 +510,19 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>4</v>
       </c>
@@ -507,11 +532,17 @@
       <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>2</v>
       </c>
@@ -519,13 +550,19 @@
         <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -533,86 +570,122 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
       <c r="G11" t="s">
         <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
       <c r="G12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="I16" t="s">
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="I17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
+    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
+    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
+    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="P22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" t="s">
+    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+      <c r="P23" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="30" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/Entities.xlsx
+++ b/Documentacion/Entities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\PesajeChallenge\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB800925-C42D-49EE-B92F-5FF84ADB8CA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7A587-04CE-463D-A75A-40EA34B69115}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" xr2:uid="{42E3223B-2237-4BC1-A824-8F7083CB1414}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
-  <si>
-    <t>User</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="96">
   <si>
     <t>UserInfo</t>
   </si>
@@ -45,9 +42,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>StartDate</t>
   </si>
   <si>
-    <t>UserId</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -120,23 +111,221 @@
     <t>UpsertedDate</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Challenges</t>
-  </si>
-  <si>
-    <t>UserInfo (all)</t>
-  </si>
-  <si>
-    <t>Collction</t>
+    <t>AppUserId</t>
+  </si>
+  <si>
+    <t>AppUser</t>
+  </si>
+  <si>
+    <t>EntityName</t>
+  </si>
+  <si>
+    <t>UpsertedValues</t>
+  </si>
+  <si>
+    <t>AppUserChallenge</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  email: "email@dot.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  myChallenges: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      id: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      name: "Challenge 1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      startDate: "2019-01-01",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      endDate: "2019-01-31",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      followUps: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          id: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date: "2019-01-31",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          weight: 84.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          id: 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          weight: 83.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          id: 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          weight: 81.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          id: 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          weight: null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          id: 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  openChallenges: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      checkDates: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          id: 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          id: 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          date: "2019-01-31"</t>
+  </si>
+  <si>
+    <t>Log in as user</t>
+  </si>
+  <si>
+    <t>UserInfoId</t>
+  </si>
+  <si>
+    <t>AppUserChallengeId</t>
+  </si>
+  <si>
+    <t>FollowUpId</t>
+  </si>
+  <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>LoggerId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AppUserId: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Email: "email@dot.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Password: "password"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  UserInfoId: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FirsName: "Luis",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LastName: "Forero",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BirthDate: "1978-01-31",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gender: "M"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  StartDate: "2019-01-31",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ChallengeId: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EndDate: "2019-02-25",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  InscriptionEndingDate: "2019-02-05"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AppUserChallengeId: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ChallengeId: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CheckDateId: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FollowUpId: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  AppUserId: "2019-01-31",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  weight: "2019-02-25"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Name: "Challenge name",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EndDate: "2019-02-25"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Date:  "2019-02-05"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Challenges: [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ChallengeId: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Name: "Challenge name",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      StartDate: "2019-01-31",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      EndDate: "2019-02-25"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +337,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,9 +385,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,198 +706,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1705427A-B41C-4351-BC43-B85507BEFE9A}">
-  <dimension ref="D7:R31"/>
+  <dimension ref="A2:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
       <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="I19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="I20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="N11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="O34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="O35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="G16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="N18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="O19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="O20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="P21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="I22" s="1"/>
-      <c r="P22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="I23" s="1"/>
-      <c r="P23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="I25" s="1"/>
-    </row>
-    <row r="30" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>20</v>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
